--- a/biology/Histoire de la zoologie et de la botanique/André_Maublanc/André_Maublanc.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/André_Maublanc/André_Maublanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Maublanc</t>
+          <t>André_Maublanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Pierre Jules Maublanc, né le 24 juillet 1880 à Nantes et mort le 30 avril 1958 dans le 6e arrondissement de Paris[1], est un mycologue, botaniste et ingénieur agronome  français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Pierre Jules Maublanc, né le 24 juillet 1880 à Nantes et mort le 30 avril 1958 dans le 6e arrondissement de Paris, est un mycologue, botaniste et ingénieur agronome  français.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Maublanc</t>
+          <t>André_Maublanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">André Maublanc est le fils de Georges Maublanc, bâtonnier de l'ordre des avocats de Nantes, directeur de l'École libre de droit et de notariat de Nantes, adjoint au maire de Nantes et conseiller général, et de Marie Benoit (nièce de Jules Benoît), propriétaire[2], ainsi que le frère de René Maublanc.
-Il a été professeur à l'Institut national agronomique[3], président de la Société mycologique de France en 1942 et de la Société botanique de France en 1945.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Maublanc est le fils de Georges Maublanc, bâtonnier de l'ordre des avocats de Nantes, directeur de l'École libre de droit et de notariat de Nantes, adjoint au maire de Nantes et conseiller général, et de Marie Benoit (nièce de Jules Benoît), propriétaire, ainsi que le frère de René Maublanc.
+Il a été professeur à l'Institut national agronomique, président de la Société mycologique de France en 1942 et de la Société botanique de France en 1945.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Maublanc</t>
+          <t>André_Maublanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier d'Académie
  Officier de la Légion d'honneur
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Maublanc</t>
+          <t>André_Maublanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Maladies des plantes cultivées, 1908.
 Maladies des plantes cultivées II, 1909.
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Maublanc</t>
+          <t>André_Maublanc</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Préfaces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Guide de l'amateur de champignons, permettant de comparer les espèces les plus communes de champignons comestibles avec les espèces vénéneuses ou amères pouvant prêter à confusion, de Frédéric Porchet, 1937, 1956.
 Manuel pratique du botaniste herborisant, de G. Bimont, 1945.
